--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022666.560517291</v>
+        <v>2126846.194968361</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283172</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>208.7099749169699</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>56.48865491052438</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>106.0530417052776</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>55.83148069963467</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>158.0359603074153</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>107.7713495553434</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.3685098718288</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>225.3432325699333</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>77.42639794035833</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>73.02167259953985</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.4992623373507</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229263</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>16.92025364381849</v>
+        <v>212.5626585298466</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.6356839950556</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>105.1820732698679</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>81.54417886827336</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>99.97427419833815</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.002352097799</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.88691958257906</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>211.6917002284577</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892392</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.16086499484882</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>18.52833786981472</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462205</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>38.05096575281127</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>137.3676443337307</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>89.45659128798653</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>111.3341376326243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717265</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>39.56681219551418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710044</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>124.4121185570364</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>146.2834074964111</v>
+        <v>79.3626684966315</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559525</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619114</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4342,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396066</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1589.382771622711</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1300.279904748355</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V4" t="n">
-        <v>1300.279904748355</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W4" t="n">
-        <v>1010.862734711394</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X4" t="n">
-        <v>782.8731838133765</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.0806046698464</v>
+        <v>902.4041387981149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3055.682869997461</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2802.152393271298</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2802.152393271298</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2449.383738001183</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2075.917979740103</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4640,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>480.687070124138</v>
+        <v>699.2355044562296</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962311</v>
+        <v>530.2993215283227</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962311</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1218.886370202646</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>929.4692001656855</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X7" t="n">
-        <v>701.4796492676682</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="Y7" t="n">
-        <v>480.687070124138</v>
+        <v>880.8839692864693</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4799,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4838,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>3137.106670368228</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1474.601958719604</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>1474.601958719604</v>
       </c>
       <c r="X10" t="n">
-        <v>941.3375521384687</v>
+        <v>1246.612407821587</v>
       </c>
       <c r="Y10" t="n">
-        <v>754.9746608886195</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413022</v>
+        <v>781.8178837532214</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133953</v>
+        <v>781.8178837532214</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133953</v>
+        <v>631.7012443408856</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>631.7012443408856</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>1184.258927726991</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.4004511715419</v>
+        <v>963.4663485834611</v>
       </c>
     </row>
     <row r="14">
@@ -5267,55 +5269,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591808</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.67509321183</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>3312.538429711218</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622261</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343192</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219835</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>282.1478848544703</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3046.798896214206</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C25" t="n">
-        <v>3046.798896214206</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D25" t="n">
-        <v>2896.68225680187</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>2748.769163219477</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661316</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376196</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218394</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296632</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822171</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998111</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729146</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389154</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098139</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671698</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.33114932884</v>
+        <v>1983.232545256803</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.33114932884</v>
+        <v>1694.157318601005</v>
       </c>
       <c r="V25" t="n">
-        <v>3966.646661122953</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.229491085993</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.239940187976</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y25" t="n">
-        <v>3228.447361044446</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,58 +6214,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>3175.341129796741</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>3006.404946868834</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>2856.288307456499</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>2708.375213874106</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2561.485266376195</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376195</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218393</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650998</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328844</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673042</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3913.540429875249</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3624.123259838289</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>3396.133708940271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.284195611858</v>
+        <v>3175.341129796741</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081857</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>3173.60104615395</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>3023.484406741614</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>2875.571313159221</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>2728.681365661311</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>2561.485266376191</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4585.352129708764</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>4296.276903052962</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>4041.592414847075</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>3752.175244810114</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>3524.185693912097</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>3524.185693912097</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>3232.00962274135</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>3063.073439813443</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>2912.956800401108</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>2765.043706818714</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2618.153759320804</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>3862.440217613137</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>3634.45066671512</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>3413.65808757159</v>
       </c>
     </row>
     <row r="35">
@@ -6914,37 +6916,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6956,28 +6958,28 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211832</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211832</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3113.560578231862</v>
+        <v>869.9745311434721</v>
       </c>
       <c r="C37" t="n">
-        <v>2944.624395303955</v>
+        <v>869.9745311434721</v>
       </c>
       <c r="D37" t="n">
-        <v>2794.50775589162</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T37" t="n">
-        <v>4395.519593172059</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U37" t="n">
-        <v>4106.444366516257</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V37" t="n">
-        <v>3851.75987831037</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W37" t="n">
-        <v>3562.34270827341</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X37" t="n">
-        <v>3334.353157375392</v>
+        <v>1272.415575117242</v>
       </c>
       <c r="Y37" t="n">
-        <v>3113.560578231862</v>
+        <v>1051.622995973712</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7190,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021787</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7473,34 +7475,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>840.8417932021788</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>3012.408157764293</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>2843.471974836386</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>2693.355335424051</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>2545.442241841658</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>2419.773435218388</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2419.773435218388</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218388</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>2337.686731866302</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328843</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673041</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>3932.255922673041</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>3642.83875263608</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>3414.849201738063</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>3194.056622594533</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7712,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239599</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249843</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="V46" t="n">
-        <v>1938.286391947399</v>
+        <v>1722.776592304623</v>
       </c>
       <c r="W46" t="n">
-        <v>1648.869221910438</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7894017452187</v>
+        <v>13.14699685919058</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.19629618688168</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.11263957635599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>144.1654765207638</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.1352912260289543</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5341284403522</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.713750098830587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>134.6711151870885</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>233.6093054540133</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>179.354484574477</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>28.15649395853814</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>59.15888173022583</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>106.071312694664</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>125.5054897610397</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>186.142843193523</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>21.00892946589482</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>79.42624789262607</v>
+        <v>146.3469868924057</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="16">
@@ -26320,40 +26322,40 @@
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752539</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.284775254</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.284775254</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752541</v>
       </c>
       <c r="O2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685513</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26436,10 +26438,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26448,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26491,10 +26493,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26506,10 +26508,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-934827.1899855867</v>
       </c>
       <c r="C6" t="n">
-        <v>393917.5557420058</v>
+        <v>393917.5557420059</v>
       </c>
       <c r="D6" t="n">
-        <v>393917.5557420058</v>
+        <v>393917.5557420059</v>
       </c>
       <c r="E6" t="n">
-        <v>144429.5410671376</v>
+        <v>144429.5410671368</v>
       </c>
       <c r="F6" t="n">
-        <v>469842.0028744922</v>
+        <v>469842.0028744923</v>
       </c>
       <c r="G6" t="n">
-        <v>469842.0028744923</v>
+        <v>469842.0028744924</v>
       </c>
       <c r="H6" t="n">
         <v>469842.0028744923</v>
       </c>
       <c r="I6" t="n">
-        <v>469842.0028744917</v>
+        <v>469842.0028744918</v>
       </c>
       <c r="J6" t="n">
-        <v>252310.8004772152</v>
+        <v>252310.8004772142</v>
       </c>
       <c r="K6" t="n">
-        <v>469842.0028744924</v>
+        <v>469842.0028744922</v>
       </c>
       <c r="L6" t="n">
-        <v>469842.0028744923</v>
+        <v>469842.002874492</v>
       </c>
       <c r="M6" t="n">
-        <v>384786.9749389804</v>
+        <v>384786.97493898</v>
       </c>
       <c r="N6" t="n">
+        <v>469842.0028744919</v>
+      </c>
+      <c r="O6" t="n">
         <v>469842.002874492</v>
       </c>
-      <c r="O6" t="n">
-        <v>469842.0028744921</v>
-      </c>
       <c r="P6" t="n">
-        <v>469842.0028744923</v>
+        <v>469842.0028744919</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>145.973066703713</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>329.7492837455292</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>73.77893847665973</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>163.7174685765345</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>45.88200983220483</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>261.9597511231257</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0.2469631463835071</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>26.79441075389471</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>250.3258605297766</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>179.1159707242882</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>34.08539101474409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28257,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.933230100285637e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28390,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.705918827272586e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29250,7 +29252,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>4.933230100285637e-12</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-1.762145984685048e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29569,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29685,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30475,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30639,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366857</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950826</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>501.1621040024318</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430261</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>434.6640573992324</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913755</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>232.7599890885191</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888799</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221144</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460001</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443689</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>459.1396705889898</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.1374415194863</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533524</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.76383318075232</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>369.8203919190985</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.18080466315196</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>300.6896499849021</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998936</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>440.9755796648395</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770453</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>98.78558167418883</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>485.6519634391653</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028583389</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>265.4651371077842</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243133</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999244</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295759</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>320.5852908091156</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126846.194968361</v>
+        <v>2122833.584954369</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283172</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892816</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.48865491052438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0530417052776</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>195.5565936082891</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>107.7713495553434</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.3685098718288</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>77.42639794035833</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>73.02167259953985</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695675</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>42.5313457611381</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229263</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>212.5626585298466</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.6356839950556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>78.34975387299315</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>81.54417886827336</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.002352097799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>211.6917002284577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892392</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>144.7193406055811</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>18.52833786981472</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462205</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>38.05096575281127</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>137.3676443337307</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>89.45659128798653</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>23.10998325717265</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>124.4121185570364</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>79.3626684966315</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4391,7 +4391,7 @@
         <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609105</v>
@@ -4400,22 +4400,22 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
         <v>1972.980349513959</v>
@@ -4424,10 +4424,10 @@
         <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
         <v>3325.605821609171</v>
@@ -4448,7 +4448,7 @@
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
         <v>2078.071769341961</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>795.2798542473295</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>626.3436713194226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.821308835076</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>902.4041387981149</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>902.4041387981149</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>902.4041387981149</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.376265094905</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1963.115437134838</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1572.976105159027</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.2355044562296</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>530.2993215283227</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396067</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.676548429999</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.676548429999</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.8839692864693</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3137.106670368228</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3137.106670368228</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218343</v>
@@ -4886,22 +4886,22 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>844.171363847817</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1474.601958719604</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1474.601958719604</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1246.612407821587</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1025.819828678057</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5032,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532214</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532214</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408856</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408856</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.258927726991</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4663485834611</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,37 +5266,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1205.369871369643</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,46 +5518,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3312.538429711218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,34 +6001,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186992</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1983.232545256803</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1694.157318601005</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1439.472830395119</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075825</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.341129796741</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868834</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456499</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874106</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376195</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218393</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650998</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305902</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328844</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673042</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V28" t="n">
-        <v>3913.540429875249</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W28" t="n">
-        <v>3624.123259838289</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X28" t="n">
-        <v>3396.133708940271</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y28" t="n">
-        <v>3175.341129796741</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081857</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.60104615395</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741614</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159221</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661311</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376191</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650997</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4585.352129708764</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4296.276903052962</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4041.592414847075</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3752.175244810114</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3524.185693912097</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912097</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828446</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3232.00962274135</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>3063.073439813443</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2912.956800401108</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2765.043706818714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2618.153759320804</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4151.857387650098</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3862.440217613137</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3634.45066671512</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3413.65808757159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>869.9745311434721</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258107</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.82229605222</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015259</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117242</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973712</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021787</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756786</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756267</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021788</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756786</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3012.408157764293</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>2843.471974836386</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>2693.355335424051</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>2545.442241841658</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2419.773435218388</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218388</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218388</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650997</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305902</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328843</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673041</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>3932.255922673041</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>3642.83875263608</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>3414.849201738063</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>3194.056622594533</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273912</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239599</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249843</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.46108051051</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304623</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267662</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>103.9026168854311</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>13.14699685919058</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.19629618688168</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864867</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>207.834720516251</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>144.1654765207638</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1352912260289543</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>5.713750098830587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.68610972170717</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>233.6093054540133</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>179.354484574477</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>28.15649395853814</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>59.15888173022583</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>125.5054897610397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>21.00892946589482</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>146.3469868924057</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.284775254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.284775254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752541</v>
-      </c>
       <c r="M2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685498</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26438,10 +26438,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26450,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26493,10 +26493,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26508,10 +26508,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>393917.5557420059</v>
       </c>
       <c r="D6" t="n">
-        <v>393917.5557420059</v>
+        <v>393917.5557420058</v>
       </c>
       <c r="E6" t="n">
-        <v>144429.5410671368</v>
+        <v>144082.1618127795</v>
       </c>
       <c r="F6" t="n">
-        <v>469842.0028744923</v>
+        <v>469494.6236201352</v>
       </c>
       <c r="G6" t="n">
-        <v>469842.0028744924</v>
+        <v>469494.6236201351</v>
       </c>
       <c r="H6" t="n">
-        <v>469842.0028744923</v>
+        <v>469494.6236201357</v>
       </c>
       <c r="I6" t="n">
-        <v>469842.0028744918</v>
+        <v>469494.6236201358</v>
       </c>
       <c r="J6" t="n">
-        <v>252310.8004772142</v>
+        <v>251963.4212228577</v>
       </c>
       <c r="K6" t="n">
-        <v>469842.0028744922</v>
+        <v>469494.6236201354</v>
       </c>
       <c r="L6" t="n">
-        <v>469842.002874492</v>
+        <v>469494.6236201353</v>
       </c>
       <c r="M6" t="n">
-        <v>384786.97493898</v>
+        <v>384439.5956846235</v>
       </c>
       <c r="N6" t="n">
-        <v>469842.0028744919</v>
+        <v>469494.6236201352</v>
       </c>
       <c r="O6" t="n">
-        <v>469842.002874492</v>
+        <v>469494.6236201354</v>
       </c>
       <c r="P6" t="n">
-        <v>469842.0028744919</v>
+        <v>469494.6236201355</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.5862092445524</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.7492837455292</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.77893847665973</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>48.93987327667864</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>159.1264480123938</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>261.9597511231257</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2469631463835071</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>250.3258605297766</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>179.1159707242882</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.49213974509621e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28259,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.933230100285637e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.705918827272586e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29252,7 +29252,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>4.933230100285637e-12</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>501.1621040024318</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430261</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8531046913755</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>232.7599890885191</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>140.7358547888799</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>399.4395445221144</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>537.6437863443689</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>459.1396705889898</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>369.8203919190985</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.18080466315196</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770453</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>98.78558167418883</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7540807028583389</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>265.4651371077842</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>395.0475418999244</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295759</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>320.5852908091156</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122833.584954369</v>
+        <v>2124594.115257155</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.14763241892816</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>36.34690181271963</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>203.1977700471494</v>
+        <v>114.2656173771016</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>195.5565936082891</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>247.7495977293172</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>188.219639431212</v>
+        <v>380.6114382412677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958684</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347177</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695675</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>42.5313457611381</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>98.72106119199752</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>78.34975387299315</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>43.7384661432547</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>144.7193406055811</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="38">
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,19 +4509,19 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
         <v>1722.044275313594</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471216</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1517.887535471216</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1159.621836864465</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>773.8335842662204</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4576,16 +4576,16 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4603,7 +4603,7 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
         <v>2277.953133796417</v>
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490882</v>
+        <v>1289.739170804069</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926375</v>
+        <v>903.950918205825</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030299</v>
+        <v>492.9650134162175</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228008</v>
@@ -4889,10 +4889,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.708435085168</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572612</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572612</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199803</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993916</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956955</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058938</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154078</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>734.6461798835963</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>734.6461798835963</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>584.5295404712606</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570812</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>916.2946447138361</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1898.319914982233</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,10 +6025,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
         <v>402.7245934908939</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2233.736227705813</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1944.661001050011</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1689.976512844124</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1400.559342807163</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1172.569791909146</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.7772127656159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7119,25 +7119,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
         <v>753.3092412490405</v>
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>103.9026168854311</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>47.71290145457165</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864867</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>207.834720516251</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.68610972170717</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
@@ -26355,7 +26355,7 @@
         <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820642</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93403.78684820636</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820633</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820633</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820628</v>
-      </c>
       <c r="E4" t="n">
-        <v>14216.75207685498</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26441,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934827.1899855867</v>
+        <v>-934827.1899855862</v>
       </c>
       <c r="C6" t="n">
         <v>393917.5557420059</v>
       </c>
       <c r="D6" t="n">
-        <v>393917.5557420058</v>
+        <v>393917.5557420055</v>
       </c>
       <c r="E6" t="n">
-        <v>144082.1618127795</v>
+        <v>144394.8031417019</v>
       </c>
       <c r="F6" t="n">
-        <v>469494.6236201352</v>
+        <v>469807.2649490563</v>
       </c>
       <c r="G6" t="n">
-        <v>469494.6236201351</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="H6" t="n">
-        <v>469494.6236201357</v>
+        <v>469807.2649490567</v>
       </c>
       <c r="I6" t="n">
-        <v>469494.6236201358</v>
+        <v>469807.2649490563</v>
       </c>
       <c r="J6" t="n">
-        <v>251963.4212228577</v>
+        <v>252276.0625517793</v>
       </c>
       <c r="K6" t="n">
-        <v>469494.6236201354</v>
+        <v>469807.2649490566</v>
       </c>
       <c r="L6" t="n">
-        <v>469494.6236201353</v>
+        <v>469807.2649490566</v>
       </c>
       <c r="M6" t="n">
-        <v>384439.5956846235</v>
+        <v>384752.2370135448</v>
       </c>
       <c r="N6" t="n">
-        <v>469494.6236201352</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="O6" t="n">
-        <v>469494.6236201354</v>
+        <v>469807.2649490567</v>
       </c>
       <c r="P6" t="n">
-        <v>469494.6236201355</v>
+        <v>469807.2649490567</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.198799748375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.5862092445524</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>349.8910368433339</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>48.93987327667864</v>
+        <v>137.8720259467264</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>159.1264480123938</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>159.1264480123943</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>222.7020862222414</v>
+        <v>30.31028741218574</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.32522828944138</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.49213974509621e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>163.1438255932947</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>20.54758114885028</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
